--- a/BodyFat.xlsx
+++ b/BodyFat.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\Health\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A68057-7E2A-48CC-83A6-A63E0270DF3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2493C53C-21F7-4964-BB2B-1DD6C4FD5193}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="825" windowWidth="20610" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -356,65 +357,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D4:J6"/>
+  <dimension ref="D4:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>186.5</v>
+        <v>185.4</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>12</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6">
         <f>E4-(E4*(E5/100))</f>
-        <v>169.715</v>
+        <v>185.4</v>
       </c>
       <c r="G6">
         <f>E6+(E4*(G5/100))</f>
-        <v>192.095</v>
+        <v>215.06400000000002</v>
       </c>
       <c r="H6">
-        <f>$E6+($E4*(H5/100))</f>
-        <v>188.36500000000001</v>
+        <f>E6+(E4*(H5/100))</f>
+        <v>211.35599999999999</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:J6" si="0">$E6+($E4*(I5/100))</f>
-        <v>184.63499999999999</v>
+        <f>E6+(E4*(I5/100))</f>
+        <v>207.648</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>180.905</v>
+        <f>$E6+($E4*(J5/100))</f>
+        <v>203.94</v>
+      </c>
+      <c r="K6">
+        <f>$E6+($E4*(K5/100))</f>
+        <v>200.232</v>
+      </c>
+      <c r="L6">
+        <f>$E6+($E4*(L5/100))</f>
+        <v>196.524</v>
       </c>
     </row>
   </sheetData>
